--- a/contents/battle/battle_4/battle_4.xlsx
+++ b/contents/battle/battle_4/battle_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99EF64-AA3D-4979-868B-40FB4A53C522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD632398-A01E-4E03-BCEA-B06B01A274E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
